--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/55_Malatya_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/55_Malatya_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929EFFB8-6B19-4412-88A7-86DE0DA9471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29036C9E-9DC6-4F95-BFBE-EA88D5B97877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{4F4031D0-AC3C-4BA1-8C47-DADE4A709E65}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{AECE4BA4-53F3-4EC9-BC40-A58463C0572F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,14 +953,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{ECC6B8E2-DF42-4579-AC72-89F8EDF61F2E}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{82D3B4C9-3EE4-4D67-8DCF-A4D3FB58B6F4}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{E89A144B-CE48-402C-BCA4-6C4E256C4B20}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{AEFF862A-FC17-40C2-BE10-26C8BBF008CF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{5C13EFFC-998C-49CF-9563-3744E330924E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D95ECEE9-EB85-4644-A06A-356B66ADB93E}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{50274E4D-4675-4C90-8685-AE9A6BBEE292}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{A4EE0BAD-71DF-4C8A-9CDC-B01DC8AE7BA5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{30801907-CDDD-4EED-8D33-5EF652A5248E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EB053BFD-E0CF-4D3F-8A56-66B5A3166D21}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5D7A9EB8-ABCA-4548-9BC4-A078646FB738}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{B1C6C6F4-4D32-4564-8E58-A89736E6CB65}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{57F90E58-CB58-4BE2-B58D-35BE2060EF03}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{91450F13-6E14-4687-B988-525752C53560}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F2DA623D-D08F-4FA6-911D-A58214AEAD27}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{779885C0-8402-4971-A3C6-27AA86318D80}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAAA01F-F635-4681-929C-0412C2841E72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FAE14A-A928-4286-BB14-A6288EFA683B}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2576,18 +2576,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F88D7B85-CDA7-4972-A50C-0A7740DA1BDA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3FD3E55-C37D-4DF6-AA5B-2E6DBAE0B4E6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97251292-AA25-47F9-A59F-49A8D5632148}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C6A1D8E-CFE2-420C-8DD0-BF83EF442D84}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{746D6CA5-2B87-4718-ABC1-6D9F45F63C1C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9271AAE6-EFD1-4672-A626-E187625FB752}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EE09985-9DA7-4138-936E-C76C908A2019}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B49D57F-4320-4B20-8493-D3732F8F625B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC369844-2731-44BF-87A4-E405E29E3C10}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A1DB336-35FA-4A91-A410-BCD9DF666ADD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E21CA9B-4183-4BF4-8DA0-D2FF8B8430D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB1452A4-9300-4192-8F8A-BB45766F50A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA96A9D3-D935-4CED-AE54-10B61AFCB2A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1185A1A4-91ED-4DFD-9ECC-300970EA8BF2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC953844-5AFF-4E94-ABE0-AF1345C675A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C63C3F6-3D11-4093-A8C3-E57B7AE15630}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D2816947-B6C5-44DC-BB74-64A06900DD1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E489CC4A-B7D2-4BC8-8085-12D18F4520A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{804BC169-9FA6-4ACE-9B2E-3990B6A7C38C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F00ACA7-A9E3-4DDB-9B93-47B9843AA8A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F9DF525-A9C1-487D-BBCF-CF7B0AC0ACDC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D494588-A88B-4AE3-BB4D-0778ACE07C56}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{863B263D-17F5-4760-A84A-A62505F394EA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF3027BE-0C3A-43F6-A086-44B3E526BB25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2600,7 +2600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37DEA0F-CC49-4D80-B6E7-654FFEAA32E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134485FA-F2F1-4810-94A3-C7B9FEC0C6E0}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3832,18 +3832,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{479B606C-403D-441E-88E8-0A742FB2DACC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03D1F951-4F62-4F2E-AD10-D1D5F2F038F2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3A74E06-A92E-4C82-A557-69E36C016E2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9275370D-B027-4ED4-A302-D5CF5ECFF8D3}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5C81FC9C-D814-4DD4-849E-BEC44F979F4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA25B19C-248C-49C2-8C40-D92CC827EEC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8A65795-C0AE-491C-8471-A366F356DDE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BB5DF63-1032-46FF-9861-FB0B9EC85231}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52B133B6-FA53-4B76-A1B4-8F15E874A746}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67B32474-19F1-4DDF-957B-93EC66CA3A8D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{834AEF66-BECA-4686-9861-A7533B85298C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0C02B19-FDF1-4368-8659-5A3CB45D7FB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C09D2FD-E061-4D93-8B1F-1CFF8A086B11}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AB5886E-4477-4D0D-986F-0084AF5622BF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DD98333D-321F-40CF-979A-80A23168676D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3FDE6CE7-EECA-470B-8667-AAD01C0058EF}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B38DDD22-E713-46D6-A90E-246AD43D843A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42F72EF9-B295-4AA5-AC96-7A0D226EC5B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3311F3B-2D6C-4594-B4EA-9256E018F9B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50884245-4846-4FC2-AA36-01842C3E6FB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{816B2F76-5EF6-4715-A8AA-F21D2D418917}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F57F43B-E260-4DAC-B2C8-B6625F903B7A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A8B8A61-DEE0-4C1B-B1F0-FE5B70F49E57}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{588F97A1-AEAA-4524-A90E-17169763C89A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3856,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A610E0D5-1B60-48B7-8973-C9C32C6E2120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377202E8-D3A3-43E7-AB0A-DD94C82F2593}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5088,18 +5088,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF0A1261-CA7A-4FB8-9D25-3291690EC2AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A94D3C6A-6B1D-4764-B4D4-52357425F69C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EEC1CC2C-20F8-41F4-8FF9-3BFDD3E77014}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77920D5D-65D5-4B57-BEAF-21295F9C49BB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D334FECC-717B-41AD-923F-00725CB2C39A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5CC706E-A600-4BA5-8919-ECFB31339AEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{009FD559-47C6-4824-9C34-B05898BC69EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C73FE366-A3E8-46CC-9797-8F0BA2EADBDC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BBD74331-A1EB-4A8D-B398-4E4BD4E2B9F8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34D159BC-FE46-4FD1-A5DE-86EB1A84D81E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{507B5612-2CE9-4DB3-8626-020B30E4562B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08CDC3C6-4D7A-44E3-AE25-43562B3756B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46168529-3A8C-403E-B18D-A64D2B8E54C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C1FC91B-86CD-4395-83F4-B055222D617A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{083EEC05-8261-44D3-BE63-DEADA0B9940D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{486313C4-F6AB-4889-BE61-588DD8A1EDAB}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A320672A-795A-41EC-945D-77A7B526CDD2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98B66FFF-09D6-4B03-8E7F-35226B905258}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{294828D6-A0F6-4F45-AAF4-4A2B096B1423}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{260D6130-3962-4EF4-91F1-5E3E87FCF9AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A0E2225-60E9-4199-84A7-89E7F23A288A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A450FD6-40EA-4676-BE59-B29B2D7165AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0190C47-8DE9-49A9-82A6-D6E1DE5B53CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B907C2D-605C-4226-9481-B1F80099929C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5112,7 +5112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F980D8DD-D079-4F9C-BA2C-9DFBC8FF006F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4200D7-90EC-47F4-AC02-8C06107F1AF3}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6332,18 +6332,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9940AF95-2834-4247-8E2E-DCC38495D49E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AEB2D4C4-1E05-4FDB-8EB7-3471C8C78F2F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9DDEF2E7-87E0-4DC0-85EC-F08AD708231D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBB55809-D1F4-42E2-AD5C-CB1477D68289}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{26BBDBA8-83B0-4000-B5BE-3C936F952945}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CC81698-ED91-42D0-8B5C-090149335001}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65E2639C-4291-4462-BB07-8CB5DD951B21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57289F5B-BEF7-4D85-AE55-CE6D12E67490}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E37BFE7E-A2EB-4ACB-9E67-2DFB492F39C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F02D182A-C6DE-44AA-941F-EEF074728DF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E25CA0C2-2950-4D9C-87F7-965EEF874282}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C46A3927-84A7-414D-8613-8D704AE8A0F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E417100-4904-4F50-9786-74DE0C542DC4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{998E133A-ED86-44A0-995D-447DCC344C74}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40923ABB-27DB-4D90-8E52-010BE1EA5436}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE5829FD-ECF1-4432-8B00-DA4E5658E83D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CC760E36-4E6C-4D3F-830F-BF487BAFEC3B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8FFE97A-7DFE-4434-9E8F-C05AE71B7B10}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7FC1531-B303-4BD5-9BFC-CFA216B85092}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A661D1F0-EE33-4843-BC10-5F10652DC43A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A6A0180-71B8-4C46-B654-F89F4E584A65}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB60462F-A8CD-437D-9543-119609731832}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43AD6CBC-E44E-47EB-9A77-4A0EC019C31E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{104C4878-9CDD-400D-8B07-7C9AFED62A1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6356,7 +6356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FAAF7-7EB6-4F1A-9C6C-BF7D90A4D683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CB034-0FD9-4C27-A975-B8506B6A0E10}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7599,18 +7599,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{868C553E-F393-48E8-923A-7F3C53D18E01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F06ADDCD-7BA9-4350-8D6C-94D22F4F0274}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25DBEB0D-6B3E-47DF-8C66-9714F09CCE09}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C69F5C17-5CE6-428C-A24E-528E587FEDFA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AFC16B75-11EA-4A71-A92A-3CA0E3D3BC90}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{563E0E29-0DB8-43F5-A7E4-01593E2F6B01}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8E124ED-27A9-4E3E-88F6-D729780E4074}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F0E143C-DE11-4522-A876-6CE22D85C832}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EA8ABB9-464E-48AD-B718-D1EBA2AF6F35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C237306B-5A23-4C92-AE90-C436812A65A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{452B5B5B-1DD3-4296-91D8-9E3A93964829}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF40FAEE-FAFA-407E-BFD3-F1C69C55A453}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{337C4C4E-CBB4-45D1-9401-FD0AE243031F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2D05E54-782C-4A15-99BC-5577495962FF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E961440C-B81F-4192-ACAD-E7664FD674F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F68817FA-8F74-43A3-A199-D978FC4AC6D1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0806B792-6AA6-42EA-AB19-40006AD42C21}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88B79137-F04D-4707-A040-8289EB38AAC1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D8FC600-0220-4EFB-A564-C611B813964F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F84DAF0-19E9-4323-A323-0C9CB4845DCD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2E25D89-6E7B-48A3-8E07-D9265370D8BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9E1FBD8-A020-4F9C-8C21-960180377967}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B5A14DE-4FAF-4E0E-859D-75F28DCF79C5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3012015-2266-40A1-A9B9-C2D4CA9312C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7623,7 +7623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB6547-01AC-460A-A642-8E1B49A90F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19374360-146B-4F60-906C-26AF11F4AFE1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8866,18 +8866,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76D2465A-87C1-497F-829B-54F11D2F46E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E15EB47-C13A-4A03-9743-20D712FE868A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C43F97AB-F7AC-409D-AB84-6E5544C987A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF3C7586-E865-4449-A722-C8050D2E3579}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E53CFB4A-346D-4C05-BCCB-C4E4CB72A0F0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2435ACE2-A13F-47F9-9C6F-1EB6093B683D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0ED63154-2A64-48B6-913E-B995E63A70DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1538DC9-DD0B-437C-A83C-5DD8407BBBC4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13B13FD3-933D-4901-BCAE-1F9ADF935531}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F12E7B5E-F01A-41B3-AEDA-56ACABC1E1D5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1234C72-B54C-4BCA-A048-D767ED3954B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{602F727B-04E2-4902-9F3E-3F6F6187CABE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7753356-A296-4A07-BFD1-EF8E7EA7C853}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{339A49F5-5391-47CF-80DF-90A59B0C5566}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8608F13-A723-4780-A6DA-6CE920AC1C1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD5F9B0D-87BB-4DC8-9043-7885A20B5B44}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A4AA52A4-CDBA-4918-8182-A64A1AE9B335}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8D2AC0C-5A89-44CE-B15C-7AA57C842840}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB0193A2-4E87-48AB-BE91-D92DAE3F02C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F767532-7B9B-4188-B5D3-1059034FFB50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3E02F0E-EDA0-4EF7-A022-FB53AB320837}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31B724FA-BD79-4A57-B088-9C2FB0F0DD24}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{49BD0AB3-83A0-48D8-BC34-898340E36901}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{903BEEF2-43DC-43ED-A352-9B9A07DF6453}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8890,7 +8890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D5C4E-CA8A-4708-BE7E-3314664CF6F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E19A4C-35C7-487B-8AEA-D7DA5A9CC6CE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10133,18 +10133,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E44A8FFE-AF36-45AA-9CB5-2826B1483481}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4572B2CD-E25F-4521-9A29-5C5B13D378F5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E0A0C36C-8FAA-4E42-896F-FD9F8025ED64}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{746EC912-6E47-4DB1-BF0B-3A226C9FD50D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7B807B82-5B65-4709-9FF0-4ED0DE3BFB12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B607687B-25A7-4F14-A08C-A8436B889D56}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{562F6A52-110A-4B0A-A213-C1AABE1A1E89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDBFC0C5-0B02-4F1A-B0B7-82290A35760F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36A3A6A5-2E5A-4306-9EA7-F0D1EE4F2071}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA4E1F71-4A19-480C-B38C-15DE7D6C144E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B1D91B1-23A3-4553-B662-D06E71DEB723}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3EAF024-3EAC-46D0-8837-D0B4F3A3789A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FE62D44-6BB6-432C-823E-D60DBA007388}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30E2A39E-5A67-4C66-B600-27EE581E5AD3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2CB9022A-C516-4A6C-AF0A-6FDA743057CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4EF3D875-0BED-436F-BE10-AFB9B6D500BB}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{33407D4C-24F4-4110-8730-1E2D2D5E23B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E263D63-2286-4BFC-810C-5967F53CACD2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89AED907-4F1E-4B65-825B-38C2901A56F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1AF6D70-3813-4FE7-BB76-75C762F3B3BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8AB2809-A8A8-4AD2-ACCE-112A3000D655}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{146F8B88-42EE-444A-85D2-73B2CE9112BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4E24A72-A1C3-42AA-BB50-0E505D043BBC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D4FDDCF-2BA5-4092-A215-E02D068347A6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10157,7 +10157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7046C0F8-6012-410B-A525-8047DBCD8A96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053822EF-0D51-4E76-B86C-39338042FE59}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11401,18 +11401,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51C33155-96DD-45EA-8ECB-D468FCA28D91}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D859E682-218A-46B3-BEDC-DA2113A31ED0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1543E649-BDA9-460E-BA49-008E5B795232}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D2006D06-0B13-4AC4-A771-DD3993878FBA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D69F5AF9-61FD-4BB1-ABAF-8A7DE56C357F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A8469AE-678A-42F4-819E-42088F7E568B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C695695-00E5-45DE-98EA-E02CA0BB6118}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DFB0338-8709-4A63-89F0-3EFF016FBF27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F95A3AF-6230-48AE-A04F-D324997F019C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{56DC9594-2E80-4C70-A576-2466771CF8C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BFAA3E3-9F6D-43E3-8B16-286257940744}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0D3105E-CEEC-4259-86F8-042B3069BD06}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{266E7C71-5CDD-4594-A6F7-A7CDD5386B5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03CB9347-31F9-4FE7-AD37-BE7C0269A244}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CC2BEB82-272A-41F1-AACD-40CDD8B58B93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2041503-1FCD-4F7E-AC22-155791FF7B49}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4CFF9F20-A43D-4799-9E6B-9E5C274C263E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8648E0C-C0AA-4ED0-B6C8-12361FC77157}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47A2A8FA-DE06-47CC-9DE8-95D5574A8F8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6467874-950D-4C0F-B529-087A1D083E41}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AC1267A-2D1A-4105-B129-8F2391224A2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7362ECE2-61C2-49C0-81DF-875191060E2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CE47F91-7144-4D62-8C59-FC7EFB9070C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B4C107D-9214-4FA9-9A77-A6A18D579228}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11425,7 +11425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C684AE7A-B103-4C53-9516-B01BC62791E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684051CF-41A9-4C99-817D-2EA582BCFDB8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12665,18 +12665,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77D69B04-3A5B-450A-8553-C76305B7A871}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BB90211-AAED-4A6A-A868-C7993EE01739}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E599EA8-537B-45D0-8701-AADBEBF97607}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE255ED2-7CBC-4BF7-8CFD-6A6CA5C5DDE8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{26D5F679-1946-4B92-B955-6FD271C71D9C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8BB35A9-1652-4D1C-B81F-418A26E849FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C632867E-1E95-412D-9767-5829E880D0AD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A020C48-75D9-40B3-8805-B1C339FC8DD5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5AA14805-0FB7-4C1F-8E18-F81D7694ECDE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC6E8262-48E2-4F77-B51C-3E584725CD91}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C79BF34-1EE9-4E6C-9EB7-AE36D956D953}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65306148-21DB-4A2C-8B35-C2A2376EBC21}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89706CA0-4FB0-4C44-A743-10D06BF245D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF40E1B8-6BAE-4600-9F71-58B4B853A9E4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{18461D3F-7ECE-4EEA-A19A-FF3FAF6E1958}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{75C8C2C0-6316-4402-8356-A35AC1709C3A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B094173D-DD7E-4E69-AB91-E400E84639B0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{78D89C06-B125-4A87-B3D1-2ED2FC342C1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5DE426A-4B50-449D-8D33-B76A8081D0A3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9151741D-6747-4F9C-AD4F-1D992906A58A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CE8E807-7F10-4501-B9C7-8B4D4854426F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92FED801-0121-48BB-9034-AF177526196D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BED3453F-BA1E-448A-97DC-EA62AA79A952}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B848583-FA93-4D94-869F-43823BFB7458}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12689,7 +12689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3916494C-1B97-430A-8E77-618464942E5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B4C93B-432E-46AF-B528-890F92C49B68}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13929,18 +13929,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{036E2FDA-7475-4716-9680-AFFD3EBA4964}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0094833-2DFD-4681-B80C-F5CFE95F043E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{91FBCCE4-1F19-41FF-925D-0CE0C1130EFD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A147A080-6871-41C6-8623-67E5A23BF94E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{07E43B7F-872D-4ECB-AA20-3DFB6344FA34}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17AA8D46-982B-4024-AD85-15020F6302A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DE4EAD7-712D-46DA-ADA3-025AC719D149}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D63F4EDB-D052-4698-8DEF-880DA4DD4885}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D22BA4B-4E46-4CE3-BB62-3E3F40E221C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC1DD439-578E-41AE-85D1-E98C35832B7F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9494791-CE58-42A7-9836-C47C13300A7E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C5AF8C2-A1EF-439A-B282-F78D220F0F80}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5074E623-8FC8-4047-93CB-8045EA34DAB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{995EAD76-6EDD-44D2-BE5F-022D6CF7D4C9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71667A54-704E-4A2B-AECF-AD26B371D4FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1640A8D3-54D5-4E1E-BFBD-2479D95E1BFA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EB34F687-8F1A-4165-96E2-D21A71D509BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40400292-6B6D-4A2B-8CBA-D4B8F05C09E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF614814-AD60-4551-A9BA-6AB876D94B58}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31134BA5-A536-4047-B179-820BF0B8F01F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01D2FB5D-11C1-4E90-B72B-97D72D24ADEA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D69EAD02-320B-4527-859D-7895BCD3FD20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CE9B44B-AEC9-4B40-9BCD-35BF4BFAA903}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{565FD626-986A-415F-8618-08DB4C4AD846}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13953,7 +13953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6046B4D7-EC55-4739-8805-DB1A29182EA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EB53EB-7D02-4806-94FD-A7D0C7C987EA}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15193,18 +15193,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5E82EB2-C1CF-41EE-A707-4E5C47AA8C37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77C97B4E-6B34-4B56-8C7D-043C5A64139C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{30B1FADE-D0C3-4C92-BCFE-7A4DAF3EF1A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FB22AC83-1342-4EF6-92F0-1DE64381FFA2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C0B3E89C-8BEB-47A3-B8F9-7606B7D73723}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4FD5C1D6-7CEC-4FA1-A448-88458307599C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6FBF998-D8D7-490A-9746-2CCC62349006}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1D64948-CAAE-4B4F-B97D-45A3E1367C00}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E01111DE-B65B-49CE-AD10-25908CCE7F0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B5E136FD-1A50-4BDF-973E-1D0259C37696}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{695B98DB-5308-4081-8A43-CA41EE7015D9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54E6648A-863B-4321-A934-1EB5E874822F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F8AD815-473C-4302-997E-A3E9243FDE77}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F96884FC-8DCA-4C0D-9D59-A0A30C6121AE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{79BC9477-E31E-4039-8633-C4C85EA35B09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E653102-767B-41DA-9F9B-C1BE87CC93F6}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{77A1D7D9-4543-4C42-9F66-3EDE2B5FD3FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE3132F3-D799-477D-92FE-2FF8D1A4793B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09CC8731-3BC3-41B0-9B90-A50A166388C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFD45F07-83A5-4646-9883-701F5C1CB7D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA04366B-7153-45C4-B469-6AF62D038E8A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3BF59F2E-E38B-47F9-B430-05B2697643B1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A9123F0-6822-4D9C-9CE3-68BD0E594D62}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{369EEE2F-68F8-442C-BFBB-3C5CE1BF42C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15217,7 +15217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A749D1F3-823B-4ADD-9D08-BAEBE827DDD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1C3343-E729-4541-A42A-A5630EAF4A11}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16457,18 +16457,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C479431-1ACC-4915-85F3-42E0C7C8D617}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F612C98A-B2F5-4682-86B9-A637319820A6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DBF83EBD-F100-4F98-98CB-4877DE6DD898}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C8C006BF-0075-4451-9F97-805553A34AA8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{51028B9D-4D22-4D07-93D2-283903958304}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF576313-7A64-475D-86B7-88C8A9D2968D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44C40FD0-B8EA-4AD5-845C-81124E15783F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6559AA83-EED3-4694-9887-70C5C5F08184}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BD7B963-D63D-473C-A0A5-1F1A9E19066C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD81B9C7-64A0-49AE-8D93-042B31783C76}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B37A5260-D465-49A4-B4FF-AD09D531F8E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3F631DF-014F-4CE3-8A69-3CA9B2543997}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE1509EA-7508-494A-8E3C-2FE83E2C95C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2460108-9BFF-44BF-85DD-09145333D6ED}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B9CB0B1-C09D-44AE-A4C2-62AE13793485}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0900423D-1B44-4E9B-BC7A-7D1702DDAAAF}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8C394AAD-B32A-4F08-A4D5-011FC4039939}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E86D019-8DAD-4B37-90A2-0B7D7796EADA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{673ACB20-1A59-4616-88A3-8461BB2E509E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{332A653E-E43E-495C-B56D-189621513B31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6CB449E-D852-4EAB-8ABE-0C2A91062469}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF0F6223-15F5-4A8E-B6C0-9720873B5B89}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99735DCE-748B-44BE-B053-A9445F62AFE3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D267FF76-A24E-4201-A880-F99A89184939}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
